--- a/CA mapeamento importação2(2).xlsx
+++ b/CA mapeamento importação2(2).xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t xml:space="preserve">Rule type</t>
   </si>
@@ -102,16 +102,56 @@
     <t xml:space="preserve">ca_objects.work_dimensions</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_objects.acqinfo.acqinfo_line1.acqinfoDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.AcquisitionMode.AcquisitionMode_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.depot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.constatEtat.remarques_etatActuel</t>
+    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_storage_locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storageLocationSplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "relationshipType": "related"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.constatEtat.etat_global</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bom
+Regular
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ruim
+"?"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bon
+a_traiter
+mauvais
+etatglobal_nonrenseigne</t>
   </si>
   <si>
     <t xml:space="preserve">ca_entities</t>
@@ -358,9 +398,6 @@
   </si>
   <si>
     <t xml:space="preserve">ULAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_storage_locations</t>
   </si>
   <si>
     <t xml:space="preserve">RDF</t>
@@ -379,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -426,6 +463,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -480,7 +523,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -529,11 +572,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,25 +603,25 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.837037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.5111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.0592592592593"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="70.5555555555556"/>
-    <col collapsed="false" hidden="false" max="26" min="12" style="0" width="11.4666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.8037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.2074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.0851851851852"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.137037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="72.4185185185185"/>
+    <col collapsed="false" hidden="false" max="26" min="12" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1001,7 +1048,9 @@
       <c r="C13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
@@ -1032,10 +1081,12 @@
       <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
@@ -1059,7 +1110,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="83.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1067,12 +1118,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
@@ -1093,22 +1148,26 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
@@ -1166,15 +1225,15 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1265,11 +1324,11 @@
       <c r="B21" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>29</v>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1301,11 +1360,11 @@
       <c r="B22" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>31</v>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1338,10 +1397,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1373,11 +1432,11 @@
       <c r="B24" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1409,11 +1468,11 @@
       <c r="B25" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>31</v>
+      <c r="C25" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1523,13 +1582,13 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1558,19 +1617,19 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1596,19 +1655,19 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1634,19 +1693,19 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1672,19 +1731,19 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1710,16 +1769,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1746,16 +1805,16 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1"/>
@@ -1782,16 +1841,16 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1818,25 +1877,25 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="13"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="2"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1900,12 +1959,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.862962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="26" min="6" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1913,67 +1969,67 @@
         <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1981,35 +2037,35 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>16</v>
@@ -2017,89 +2073,89 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F16" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
